--- a/data/fuentes.xlsx
+++ b/data/fuentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajcestudioses-my.sharepoint.com/personal/info_ajcestudios_es/Documents/057_Autovia Olivar/4. Documentacion presentada/HTML/SUMINISTROS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8574C55D-0375-4328-9969-AE6057B59F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4C5AB3C-4446-4B31-AB3F-D147D0FA64F0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8574C55D-0375-4328-9969-AE6057B59F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489099A0-34E9-4B86-86E7-665B5F48F80B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0388B033-2C32-4233-92A9-D607977C820B}"/>
   </bookViews>
@@ -309,13 +309,13 @@
     </r>
   </si>
   <si>
-    <t>CUENCA, ESPAÑA</t>
-  </si>
-  <si>
     <t>37.7227</t>
   </si>
   <si>
     <t>-3.9658</t>
+  </si>
+  <si>
+    <t>MARTOS, ESPAÑA</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1221,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
